--- a/kinou.xlsx
+++ b/kinou.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c6c0e78641f3fe9d/デスクトップ/kadai/kadai/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c6c0e78641f3fe9d/デスクトップ/Design documents/Design-document/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{7803F28D-0BE1-4061-9C88-4B42166B3F8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E828633C-6BB5-454A-ADF4-7996C10A430A}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="8_{7803F28D-0BE1-4061-9C88-4B42166B3F8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A8CFA35A-9946-4416-A02B-E7A72714A911}"/>
   <bookViews>
-    <workbookView xWindow="28665" yWindow="3075" windowWidth="17280" windowHeight="9030" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙 " sheetId="3" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="50">
   <si>
     <t>機能一覧表</t>
     <rPh sb="0" eb="2">
@@ -382,6 +382,136 @@
     </rPh>
     <rPh sb="6" eb="8">
       <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>設定入力前</t>
+    <rPh sb="0" eb="2">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>マエ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>設定入力</t>
+    <rPh sb="0" eb="2">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>予定入力確認画面</t>
+    <rPh sb="0" eb="4">
+      <t>ヨテイニュウリョク</t>
+    </rPh>
+    <rPh sb="4" eb="8">
+      <t>カクニンガメン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ログインした後に確認できる画面かつ管理者権限でログインした場合</t>
+    <rPh sb="6" eb="7">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>設定入力画面</t>
+    <rPh sb="0" eb="2">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>設定確認画面</t>
+    <rPh sb="0" eb="2">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>設定完了画面</t>
+    <rPh sb="0" eb="2">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>設定の登録・確認・完了</t>
+    <rPh sb="0" eb="2">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>予定削除</t>
+    <rPh sb="0" eb="2">
+      <t>ヨテイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>予定更新</t>
+    <rPh sb="0" eb="2">
+      <t>ヨテイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウシン</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -744,6 +874,24 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="6" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="6" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="6" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -767,24 +915,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -2895,7 +3025,7 @@
   <dimension ref="A1:FQ42"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
@@ -2909,37 +3039,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:173" ht="12.75" customHeight="1">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
-      <c r="N1" s="57"/>
-      <c r="O1" s="57"/>
-      <c r="P1" s="57"/>
-      <c r="Q1" s="57"/>
-      <c r="R1" s="57"/>
-      <c r="S1" s="57"/>
-      <c r="T1" s="57"/>
-      <c r="U1" s="57"/>
-      <c r="V1" s="57"/>
-      <c r="W1" s="57"/>
-      <c r="X1" s="57"/>
-      <c r="Y1" s="57"/>
-      <c r="Z1" s="57"/>
-      <c r="AA1" s="57"/>
-      <c r="AB1" s="57"/>
-      <c r="AC1" s="57"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
+      <c r="U1" s="63"/>
+      <c r="V1" s="63"/>
+      <c r="W1" s="63"/>
+      <c r="X1" s="63"/>
+      <c r="Y1" s="63"/>
+      <c r="Z1" s="63"/>
+      <c r="AA1" s="63"/>
+      <c r="AB1" s="63"/>
+      <c r="AC1" s="63"/>
     </row>
     <row r="2" spans="1:173" ht="14.25" customHeight="1">
       <c r="A2" s="2" t="s">
@@ -2973,10 +3103,10 @@
         <v>2</v>
       </c>
       <c r="AA2" s="3"/>
-      <c r="AB2" s="58" t="s">
+      <c r="AB2" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="AC2" s="59"/>
+      <c r="AC2" s="65"/>
     </row>
     <row r="3" spans="1:173" ht="12.75" customHeight="1">
       <c r="A3" s="5" t="s">
@@ -3006,53 +3136,53 @@
       <c r="W3" s="6"/>
       <c r="X3" s="6"/>
       <c r="Y3" s="6"/>
-      <c r="Z3" s="60" t="s">
+      <c r="Z3" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="AA3" s="61"/>
-      <c r="AB3" s="60" t="s">
+      <c r="AA3" s="67"/>
+      <c r="AB3" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="AC3" s="61"/>
+      <c r="AC3" s="67"/>
     </row>
     <row r="4" spans="1:173" s="9" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="62" t="s">
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="62" t="s">
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="63"/>
-      <c r="L4" s="63"/>
-      <c r="M4" s="63"/>
-      <c r="N4" s="63"/>
-      <c r="O4" s="64"/>
-      <c r="P4" s="62" t="s">
+      <c r="K4" s="69"/>
+      <c r="L4" s="69"/>
+      <c r="M4" s="69"/>
+      <c r="N4" s="69"/>
+      <c r="O4" s="70"/>
+      <c r="P4" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="Q4" s="63"/>
-      <c r="R4" s="63"/>
-      <c r="S4" s="63"/>
-      <c r="T4" s="63"/>
-      <c r="U4" s="63"/>
-      <c r="V4" s="63"/>
-      <c r="W4" s="63"/>
-      <c r="X4" s="63"/>
-      <c r="Y4" s="63"/>
-      <c r="Z4" s="63"/>
-      <c r="AA4" s="63"/>
-      <c r="AB4" s="63"/>
-      <c r="AC4" s="64"/>
+      <c r="Q4" s="69"/>
+      <c r="R4" s="69"/>
+      <c r="S4" s="69"/>
+      <c r="T4" s="69"/>
+      <c r="U4" s="69"/>
+      <c r="V4" s="69"/>
+      <c r="W4" s="69"/>
+      <c r="X4" s="69"/>
+      <c r="Y4" s="69"/>
+      <c r="Z4" s="69"/>
+      <c r="AA4" s="69"/>
+      <c r="AB4" s="69"/>
+      <c r="AC4" s="70"/>
       <c r="AD4" s="7"/>
       <c r="AE4" s="8"/>
       <c r="AF4" s="8"/>
@@ -3259,22 +3389,22 @@
       <c r="M6" s="11"/>
       <c r="N6" s="11"/>
       <c r="O6" s="13"/>
-      <c r="P6" s="65" t="s">
+      <c r="P6" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="Q6" s="66"/>
-      <c r="R6" s="66"/>
-      <c r="S6" s="66"/>
-      <c r="T6" s="66"/>
-      <c r="U6" s="66"/>
-      <c r="V6" s="66"/>
-      <c r="W6" s="66"/>
-      <c r="X6" s="66"/>
-      <c r="Y6" s="66"/>
-      <c r="Z6" s="66"/>
-      <c r="AA6" s="66"/>
-      <c r="AB6" s="66"/>
-      <c r="AC6" s="67"/>
+      <c r="Q6" s="58"/>
+      <c r="R6" s="58"/>
+      <c r="S6" s="58"/>
+      <c r="T6" s="58"/>
+      <c r="U6" s="58"/>
+      <c r="V6" s="58"/>
+      <c r="W6" s="58"/>
+      <c r="X6" s="58"/>
+      <c r="Y6" s="58"/>
+      <c r="Z6" s="58"/>
+      <c r="AA6" s="58"/>
+      <c r="AB6" s="58"/>
+      <c r="AC6" s="59"/>
     </row>
     <row r="7" spans="1:173" ht="12.75" customHeight="1">
       <c r="A7" s="10"/>
@@ -3286,14 +3416,14 @@
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
       <c r="I7" s="13"/>
-      <c r="J7" s="68" t="s">
+      <c r="J7" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="K7" s="69"/>
-      <c r="L7" s="69"/>
-      <c r="M7" s="69"/>
-      <c r="N7" s="69"/>
-      <c r="O7" s="70"/>
+      <c r="K7" s="61"/>
+      <c r="L7" s="61"/>
+      <c r="M7" s="61"/>
+      <c r="N7" s="61"/>
+      <c r="O7" s="62"/>
       <c r="P7" s="14"/>
       <c r="Q7" s="11"/>
       <c r="R7" s="11"/>
@@ -3319,14 +3449,14 @@
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
       <c r="I8" s="13"/>
-      <c r="J8" s="68" t="s">
+      <c r="J8" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="K8" s="69"/>
-      <c r="L8" s="69"/>
-      <c r="M8" s="69"/>
-      <c r="N8" s="69"/>
-      <c r="O8" s="70"/>
+      <c r="K8" s="61"/>
+      <c r="L8" s="61"/>
+      <c r="M8" s="61"/>
+      <c r="N8" s="61"/>
+      <c r="O8" s="62"/>
       <c r="P8" s="14"/>
       <c r="Q8" s="15"/>
       <c r="R8" s="15"/>
@@ -3454,22 +3584,30 @@
       <c r="AC11" s="13"/>
     </row>
     <row r="12" spans="1:173" ht="12.75" customHeight="1">
-      <c r="A12" s="10"/>
+      <c r="A12" s="10" t="s">
+        <v>40</v>
+      </c>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
-      <c r="F12" s="12"/>
+      <c r="F12" s="12" t="s">
+        <v>37</v>
+      </c>
       <c r="G12" s="11"/>
       <c r="H12" s="11"/>
       <c r="I12" s="13"/>
-      <c r="J12" s="11"/>
+      <c r="J12" s="11" t="s">
+        <v>42</v>
+      </c>
       <c r="K12" s="11"/>
       <c r="L12" s="11"/>
       <c r="M12" s="11"/>
       <c r="N12" s="11"/>
       <c r="O12" s="13"/>
-      <c r="P12" s="14"/>
+      <c r="P12" s="14" t="s">
+        <v>43</v>
+      </c>
       <c r="Q12" s="11"/>
       <c r="R12" s="11"/>
       <c r="S12" s="11"/>
@@ -3485,22 +3623,30 @@
       <c r="AC12" s="13"/>
     </row>
     <row r="13" spans="1:173" ht="12.75" customHeight="1">
-      <c r="A13" s="10"/>
+      <c r="A13" s="10" t="s">
+        <v>41</v>
+      </c>
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
-      <c r="F13" s="12"/>
+      <c r="F13" s="12" t="s">
+        <v>27</v>
+      </c>
       <c r="G13" s="11"/>
       <c r="H13" s="11"/>
       <c r="I13" s="13"/>
-      <c r="J13" s="11"/>
+      <c r="J13" s="11" t="s">
+        <v>44</v>
+      </c>
       <c r="K13" s="11"/>
       <c r="L13" s="11"/>
       <c r="M13" s="11"/>
       <c r="N13" s="11"/>
       <c r="O13" s="13"/>
-      <c r="P13" s="14"/>
+      <c r="P13" s="14" t="s">
+        <v>47</v>
+      </c>
       <c r="Q13" s="11"/>
       <c r="R13" s="11"/>
       <c r="S13" s="11"/>
@@ -3525,7 +3671,9 @@
       <c r="G14" s="11"/>
       <c r="H14" s="11"/>
       <c r="I14" s="13"/>
-      <c r="J14" s="11"/>
+      <c r="J14" s="11" t="s">
+        <v>45</v>
+      </c>
       <c r="K14" s="11"/>
       <c r="L14" s="11"/>
       <c r="M14" s="11"/>
@@ -3556,7 +3704,9 @@
       <c r="G15" s="11"/>
       <c r="H15" s="11"/>
       <c r="I15" s="13"/>
-      <c r="J15" s="11"/>
+      <c r="J15" s="11" t="s">
+        <v>46</v>
+      </c>
       <c r="K15" s="11"/>
       <c r="L15" s="11"/>
       <c r="M15" s="11"/>
@@ -3609,7 +3759,9 @@
       <c r="AC16" s="13"/>
     </row>
     <row r="17" spans="1:29" ht="12.75" customHeight="1">
-      <c r="A17" s="10"/>
+      <c r="A17" s="10" t="s">
+        <v>48</v>
+      </c>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
@@ -3671,7 +3823,9 @@
       <c r="AC18" s="13"/>
     </row>
     <row r="19" spans="1:29" ht="12.75" customHeight="1">
-      <c r="A19" s="10"/>
+      <c r="A19" s="10" t="s">
+        <v>49</v>
+      </c>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>

--- a/kinou.xlsx
+++ b/kinou.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c6c0e78641f3fe9d/デスクトップ/Design documents/Design-document/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="8_{7803F28D-0BE1-4061-9C88-4B42166B3F8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A8CFA35A-9946-4416-A02B-E7A72714A911}"/>
+  <xr:revisionPtr revIDLastSave="34" documentId="8_{7803F28D-0BE1-4061-9C88-4B42166B3F8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E94E21F6-ADB8-48E2-A7D2-695D2A77CD6F}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="81">
   <si>
     <t>機能一覧表</t>
     <rPh sb="0" eb="2">
@@ -512,6 +512,409 @@
     </rPh>
     <rPh sb="2" eb="4">
       <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>アカウント更新</t>
+    <rPh sb="5" eb="7">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>アカウント削除</t>
+    <rPh sb="5" eb="7">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>パスワード再設定</t>
+    <rPh sb="5" eb="8">
+      <t>サイセッテイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>予定削除完了画面</t>
+    <rPh sb="0" eb="4">
+      <t>ヨテイサクジョ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>予定削除確認①画面</t>
+    <rPh sb="0" eb="2">
+      <t>ヨテイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>予定削除確認②画面</t>
+    <rPh sb="0" eb="2">
+      <t>ヨテイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>予定更新編集画面</t>
+    <rPh sb="0" eb="2">
+      <t>ヨテイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>予定更新確認画面</t>
+    <rPh sb="0" eb="2">
+      <t>ヨテイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="4" eb="8">
+      <t>カクニンガメン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>予定更新完了画面</t>
+    <rPh sb="0" eb="2">
+      <t>ヨテイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>アカウント更新編集画面</t>
+    <rPh sb="5" eb="7">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>アカウント更新確認画面</t>
+    <rPh sb="5" eb="7">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>アカウント更新完了画面</t>
+    <rPh sb="5" eb="7">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>カンリョウガメン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>アカウント削除編集画面</t>
+    <rPh sb="5" eb="7">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>アカウント削除確認画面</t>
+    <rPh sb="5" eb="7">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>アカウント削除完了画面</t>
+    <rPh sb="5" eb="7">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>カンリョウガメン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>パスワード再設定情報取得画面</t>
+    <rPh sb="5" eb="8">
+      <t>サイセッテイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>パスワード再設定編集画面</t>
+    <rPh sb="5" eb="8">
+      <t>サイセッテイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>パスワード再設定完了画面</t>
+    <rPh sb="5" eb="6">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ログインした後に予定を削除できる画面</t>
+    <rPh sb="6" eb="7">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヨテイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>削除の確認、完了</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ログインした後に予定を更新できる画面</t>
+    <rPh sb="6" eb="7">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヨテイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>更新の確認、完了</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>アカウント更新の編集画面</t>
+    <rPh sb="5" eb="7">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>アカウント更新の確認画面</t>
+    <rPh sb="5" eb="7">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>アカウント更新の完了画面</t>
+    <rPh sb="5" eb="7">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>アカウント削除の編集画面</t>
+    <rPh sb="5" eb="7">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>アカウント削除の確認画面</t>
+    <rPh sb="5" eb="7">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>アカウント削除の完了画面</t>
+    <rPh sb="5" eb="7">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>パスワード再設定するための情報を確認する画面</t>
+    <rPh sb="5" eb="8">
+      <t>サイセッテイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>パスワード再設定ができる画面</t>
+    <rPh sb="5" eb="8">
+      <t>サイセッテイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>パスワード再設定が完了する画面</t>
+    <rPh sb="5" eb="8">
+      <t>サイセッテイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ガメン</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -3025,7 +3428,7 @@
   <dimension ref="A1:FQ42"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="P32" sqref="P32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
@@ -3770,13 +4173,17 @@
       <c r="G17" s="11"/>
       <c r="H17" s="11"/>
       <c r="I17" s="13"/>
-      <c r="J17" s="11"/>
+      <c r="J17" s="11" t="s">
+        <v>54</v>
+      </c>
       <c r="K17" s="11"/>
       <c r="L17" s="11"/>
       <c r="M17" s="11"/>
       <c r="N17" s="11"/>
       <c r="O17" s="13"/>
-      <c r="P17" s="14"/>
+      <c r="P17" s="14" t="s">
+        <v>68</v>
+      </c>
       <c r="Q17" s="11"/>
       <c r="R17" s="11"/>
       <c r="S17" s="11"/>
@@ -3801,13 +4208,17 @@
       <c r="G18" s="11"/>
       <c r="H18" s="11"/>
       <c r="I18" s="13"/>
-      <c r="J18" s="11"/>
+      <c r="J18" s="11" t="s">
+        <v>55</v>
+      </c>
       <c r="K18" s="11"/>
       <c r="L18" s="11"/>
       <c r="M18" s="11"/>
       <c r="N18" s="11"/>
       <c r="O18" s="13"/>
-      <c r="P18" s="14"/>
+      <c r="P18" s="14" t="s">
+        <v>69</v>
+      </c>
       <c r="Q18" s="11"/>
       <c r="R18" s="11"/>
       <c r="S18" s="15"/>
@@ -3823,9 +4234,7 @@
       <c r="AC18" s="13"/>
     </row>
     <row r="19" spans="1:29" ht="12.75" customHeight="1">
-      <c r="A19" s="10" t="s">
-        <v>49</v>
-      </c>
+      <c r="A19" s="10"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
@@ -3834,7 +4243,9 @@
       <c r="G19" s="11"/>
       <c r="H19" s="11"/>
       <c r="I19" s="13"/>
-      <c r="J19" s="11"/>
+      <c r="J19" s="11" t="s">
+        <v>53</v>
+      </c>
       <c r="K19" s="11"/>
       <c r="L19" s="11"/>
       <c r="M19" s="11"/>
@@ -3856,7 +4267,9 @@
       <c r="AC19" s="13"/>
     </row>
     <row r="20" spans="1:29" ht="12.75" customHeight="1">
-      <c r="A20" s="10"/>
+      <c r="A20" s="10" t="s">
+        <v>49</v>
+      </c>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
@@ -3865,13 +4278,17 @@
       <c r="G20" s="11"/>
       <c r="H20" s="11"/>
       <c r="I20" s="13"/>
-      <c r="J20" s="11"/>
+      <c r="J20" s="11" t="s">
+        <v>56</v>
+      </c>
       <c r="K20" s="11"/>
       <c r="L20" s="11"/>
       <c r="M20" s="11"/>
       <c r="N20" s="11"/>
       <c r="O20" s="13"/>
-      <c r="P20" s="14"/>
+      <c r="P20" s="14" t="s">
+        <v>70</v>
+      </c>
       <c r="Q20" s="11"/>
       <c r="R20" s="11"/>
       <c r="S20" s="11"/>
@@ -3896,13 +4313,17 @@
       <c r="G21" s="11"/>
       <c r="H21" s="11"/>
       <c r="I21" s="13"/>
-      <c r="J21" s="11"/>
+      <c r="J21" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="K21" s="11"/>
       <c r="L21" s="11"/>
       <c r="M21" s="11"/>
       <c r="N21" s="11"/>
       <c r="O21" s="13"/>
-      <c r="P21" s="14"/>
+      <c r="P21" s="14" t="s">
+        <v>71</v>
+      </c>
       <c r="Q21" s="11"/>
       <c r="R21" s="11"/>
       <c r="S21" s="11"/>
@@ -3927,7 +4348,9 @@
       <c r="G22" s="11"/>
       <c r="H22" s="11"/>
       <c r="I22" s="13"/>
-      <c r="J22" s="11"/>
+      <c r="J22" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="K22" s="11"/>
       <c r="L22" s="11"/>
       <c r="M22" s="11"/>
@@ -3949,7 +4372,9 @@
       <c r="AC22" s="13"/>
     </row>
     <row r="23" spans="1:29" ht="12.75" customHeight="1">
-      <c r="A23" s="10"/>
+      <c r="A23" s="10" t="s">
+        <v>50</v>
+      </c>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
@@ -3958,13 +4383,17 @@
       <c r="G23" s="11"/>
       <c r="H23" s="11"/>
       <c r="I23" s="13"/>
-      <c r="J23" s="11"/>
+      <c r="J23" s="11" t="s">
+        <v>59</v>
+      </c>
       <c r="K23" s="11"/>
       <c r="L23" s="11"/>
       <c r="M23" s="11"/>
       <c r="N23" s="11"/>
       <c r="O23" s="13"/>
-      <c r="P23" s="14"/>
+      <c r="P23" s="14" t="s">
+        <v>72</v>
+      </c>
       <c r="Q23" s="15"/>
       <c r="R23" s="15"/>
       <c r="S23" s="15"/>
@@ -3989,13 +4418,17 @@
       <c r="G24" s="11"/>
       <c r="H24" s="11"/>
       <c r="I24" s="13"/>
-      <c r="J24" s="11"/>
+      <c r="J24" s="11" t="s">
+        <v>60</v>
+      </c>
       <c r="K24" s="11"/>
       <c r="L24" s="11"/>
       <c r="M24" s="11"/>
       <c r="N24" s="11"/>
       <c r="O24" s="13"/>
-      <c r="P24" s="14"/>
+      <c r="P24" s="14" t="s">
+        <v>73</v>
+      </c>
       <c r="Q24" s="15"/>
       <c r="R24" s="15"/>
       <c r="S24" s="15"/>
@@ -4020,13 +4453,17 @@
       <c r="G25" s="11"/>
       <c r="H25" s="11"/>
       <c r="I25" s="13"/>
-      <c r="J25" s="11"/>
+      <c r="J25" s="11" t="s">
+        <v>61</v>
+      </c>
       <c r="K25" s="11"/>
       <c r="L25" s="11"/>
       <c r="M25" s="11"/>
       <c r="N25" s="11"/>
       <c r="O25" s="13"/>
-      <c r="P25" s="14"/>
+      <c r="P25" s="14" t="s">
+        <v>74</v>
+      </c>
       <c r="Q25" s="15"/>
       <c r="R25" s="15"/>
       <c r="S25" s="15"/>
@@ -4042,7 +4479,9 @@
       <c r="AC25" s="13"/>
     </row>
     <row r="26" spans="1:29" ht="12.75" customHeight="1">
-      <c r="A26" s="10"/>
+      <c r="A26" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
       <c r="D26" s="11"/>
@@ -4051,13 +4490,17 @@
       <c r="G26" s="11"/>
       <c r="H26" s="11"/>
       <c r="I26" s="13"/>
-      <c r="J26" s="11"/>
+      <c r="J26" s="11" t="s">
+        <v>62</v>
+      </c>
       <c r="K26" s="11"/>
       <c r="L26" s="11"/>
       <c r="M26" s="11"/>
       <c r="N26" s="11"/>
       <c r="O26" s="13"/>
-      <c r="P26" s="14"/>
+      <c r="P26" s="14" t="s">
+        <v>75</v>
+      </c>
       <c r="Q26" s="15"/>
       <c r="R26" s="15"/>
       <c r="S26" s="15"/>
@@ -4082,13 +4525,17 @@
       <c r="G27" s="11"/>
       <c r="H27" s="11"/>
       <c r="I27" s="13"/>
-      <c r="J27" s="11"/>
+      <c r="J27" s="11" t="s">
+        <v>63</v>
+      </c>
       <c r="K27" s="11"/>
       <c r="L27" s="11"/>
       <c r="M27" s="11"/>
       <c r="N27" s="11"/>
       <c r="O27" s="13"/>
-      <c r="P27" s="14"/>
+      <c r="P27" s="14" t="s">
+        <v>76</v>
+      </c>
       <c r="Q27" s="15"/>
       <c r="R27" s="15"/>
       <c r="S27" s="15"/>
@@ -4113,13 +4560,17 @@
       <c r="G28" s="11"/>
       <c r="H28" s="11"/>
       <c r="I28" s="13"/>
-      <c r="J28" s="11"/>
+      <c r="J28" s="11" t="s">
+        <v>64</v>
+      </c>
       <c r="K28" s="11"/>
       <c r="L28" s="11"/>
       <c r="M28" s="11"/>
       <c r="N28" s="11"/>
       <c r="O28" s="13"/>
-      <c r="P28" s="14"/>
+      <c r="P28" s="14" t="s">
+        <v>77</v>
+      </c>
       <c r="Q28" s="15"/>
       <c r="R28" s="15"/>
       <c r="S28" s="15"/>
@@ -4135,7 +4586,9 @@
       <c r="AC28" s="13"/>
     </row>
     <row r="29" spans="1:29" ht="12.75" customHeight="1">
-      <c r="A29" s="10"/>
+      <c r="A29" s="10" t="s">
+        <v>52</v>
+      </c>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
       <c r="D29" s="11"/>
@@ -4144,13 +4597,17 @@
       <c r="G29" s="11"/>
       <c r="H29" s="11"/>
       <c r="I29" s="13"/>
-      <c r="J29" s="11"/>
+      <c r="J29" s="11" t="s">
+        <v>65</v>
+      </c>
       <c r="K29" s="11"/>
       <c r="L29" s="11"/>
       <c r="M29" s="11"/>
       <c r="N29" s="11"/>
       <c r="O29" s="13"/>
-      <c r="P29" s="14"/>
+      <c r="P29" s="14" t="s">
+        <v>78</v>
+      </c>
       <c r="Q29" s="15"/>
       <c r="R29" s="15"/>
       <c r="S29" s="15"/>
@@ -4175,13 +4632,17 @@
       <c r="G30" s="11"/>
       <c r="H30" s="11"/>
       <c r="I30" s="13"/>
-      <c r="J30" s="11"/>
+      <c r="J30" s="11" t="s">
+        <v>66</v>
+      </c>
       <c r="K30" s="11"/>
       <c r="L30" s="11"/>
       <c r="M30" s="11"/>
       <c r="N30" s="11"/>
       <c r="O30" s="13"/>
-      <c r="P30" s="10"/>
+      <c r="P30" s="10" t="s">
+        <v>79</v>
+      </c>
       <c r="Q30" s="11"/>
       <c r="R30" s="11"/>
       <c r="S30" s="11"/>
@@ -4206,13 +4667,17 @@
       <c r="G31" s="11"/>
       <c r="H31" s="11"/>
       <c r="I31" s="13"/>
-      <c r="J31" s="11"/>
+      <c r="J31" s="11" t="s">
+        <v>67</v>
+      </c>
       <c r="K31" s="11"/>
       <c r="L31" s="11"/>
       <c r="M31" s="11"/>
       <c r="N31" s="11"/>
       <c r="O31" s="13"/>
-      <c r="P31" s="10"/>
+      <c r="P31" s="10" t="s">
+        <v>80</v>
+      </c>
       <c r="Q31" s="11"/>
       <c r="R31" s="11"/>
       <c r="S31" s="11"/>
